--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>44.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.34</t>
+          <t>28.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>98.26</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.09</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -706,25 +786,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -790,25 +900,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010058</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘荣创一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1942,4 +1943,2490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>58.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4429,4 +4430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4438,7 +4439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4449,17 +4450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4469,14 +4490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.88</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4485,14 +4528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.49</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4501,14 +4566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -4517,13 +4604,1023 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8837</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5519,7 +5520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5530,17 +5531,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5550,14 +5571,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.6</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6285</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5566,14 +5609,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.88</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5582,14 +5647,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.49</v>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5598,14 +5685,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.4</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5614,13 +5723,1410 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5865</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014331</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF联接C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7009,7 +7010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7020,17 +7021,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7040,14 +7061,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.75</v>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7056,14 +7099,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.6</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7072,14 +7137,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.88</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7088,14 +7175,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.49</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5394</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7104,14 +7213,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.4</v>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -7120,13 +7251,673 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>9.75</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>16.88</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>5.49</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>3.4</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.48</v>
       </c>
     </row>
@@ -600,6 +617,744 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1373,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2862,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3942,7 +4697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6428,7 +7183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7396,7 +8151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7680,7 +8435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601600-中国铝业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>3.82</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>4.16</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>9.75</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>6.6</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>16.88</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>5.49</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>3.4</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.48</v>
       </c>
     </row>
@@ -616,7 +633,1257 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3864</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159713</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证稀土产业ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561330</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属矿业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1354,7 +2621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2128,7 +3395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3617,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4697,7 +5964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7183,7 +8450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8151,7 +9418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8433,250 +9700,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2524</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7974</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1231</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001719</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信国家战略主题股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>